--- a/xlsx/中美 (政治地理学)_intext.xlsx
+++ b/xlsx/中美 (政治地理学)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>中美 (政治地理学)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>英语</t>
   </si>
   <si>
-    <t>政策_政策_美國_中美 (政治地理学)</t>
+    <t>政策_政策_美国_中美 (政治地理学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中部</t>
+    <t>美国中部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%89%E6%B0%91</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>海外領地</t>
+    <t>海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%91%97</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙殖民帝國</t>
+    <t>西班牙殖民帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
-    <t>英語美洲</t>
+    <t>英语美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8C%BA_(%E6%B3%95%E5%9B%BD)</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF</t>
   </si>
   <si>
-    <t>荷屬安地列斯</t>
+    <t>荷属安地列斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B7%B4%E6%89%98%E6%B4%9B%E7%BC%AA%E5%B2%9B</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -593,9 +593,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%9C%A3%E9%A9%AC%E4%B8%81</t>
   </si>
   <si>
@@ -605,31 +602,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E5%A4%A7%E5%AD%B8%E5%A5%A7%E6%96%AF%E6%B1%80%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>德克薩斯州大學奧斯汀分校</t>
+    <t>德克萨斯州大学奥斯汀分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -677,19 +674,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>牛津大學出版社</t>
+    <t>牛津大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>哥倫比亞大學出版社</t>
+    <t>哥伦比亚大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -785,19 +782,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -905,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -989,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1049,25 +1046,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1085,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1175,19 +1172,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4373,7 +4370,7 @@
         <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4399,10 +4396,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4428,10 +4425,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4457,10 +4454,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4486,10 +4483,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4515,10 +4512,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4544,10 +4541,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4573,10 +4570,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4602,10 +4599,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4631,10 +4628,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4660,10 +4657,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4689,10 +4686,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4718,10 +4715,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4747,10 +4744,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4776,10 +4773,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4805,10 +4802,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4834,10 +4831,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4863,10 +4860,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4892,10 +4889,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4921,10 +4918,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>8</v>
@@ -4950,10 +4947,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4979,10 +4976,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5008,10 +5005,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5037,10 +5034,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5066,10 +5063,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5095,10 +5092,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5124,10 +5121,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5153,10 +5150,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5182,10 +5179,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5211,10 +5208,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5240,10 +5237,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5269,10 +5266,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5298,10 +5295,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5327,10 +5324,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5356,10 +5353,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5385,10 +5382,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>13</v>
@@ -5414,10 +5411,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5443,10 +5440,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5472,10 +5469,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5501,10 +5498,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5530,10 +5527,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5559,10 +5556,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5588,10 +5585,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5617,10 +5614,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5646,10 +5643,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5675,10 +5672,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5704,10 +5701,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5733,10 +5730,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5762,10 +5759,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5791,10 +5788,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5820,10 +5817,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5849,10 +5846,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5878,10 +5875,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5907,10 +5904,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5936,10 +5933,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5965,10 +5962,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6023,10 +6020,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6052,10 +6049,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6081,10 +6078,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6110,10 +6107,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6139,10 +6136,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6168,10 +6165,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6197,10 +6194,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6226,10 +6223,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6255,10 +6252,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6284,10 +6281,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6313,10 +6310,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6342,10 +6339,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6371,10 +6368,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6400,10 +6397,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6429,10 +6426,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6458,10 +6455,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6487,10 +6484,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6516,10 +6513,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6545,10 +6542,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6574,10 +6571,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6603,10 +6600,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6632,10 +6629,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6661,10 +6658,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6690,10 +6687,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>10</v>
@@ -6719,10 +6716,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6748,10 +6745,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6777,10 +6774,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6806,10 +6803,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6835,10 +6832,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6864,10 +6861,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6893,10 +6890,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6922,10 +6919,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6951,10 +6948,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>8</v>
@@ -6980,10 +6977,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7009,10 +7006,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
         <v>367</v>
-      </c>
-      <c r="F187" t="s">
-        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7038,10 +7035,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" t="s">
         <v>369</v>
-      </c>
-      <c r="F188" t="s">
-        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7067,10 +7064,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
         <v>371</v>
-      </c>
-      <c r="F189" t="s">
-        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7096,10 +7093,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
         <v>373</v>
-      </c>
-      <c r="F190" t="s">
-        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7125,10 +7122,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>374</v>
+      </c>
+      <c r="F191" t="s">
         <v>375</v>
-      </c>
-      <c r="F191" t="s">
-        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7154,10 +7151,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
         <v>377</v>
-      </c>
-      <c r="F192" t="s">
-        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7183,10 +7180,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7212,10 +7209,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
         <v>381</v>
-      </c>
-      <c r="F194" t="s">
-        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7241,10 +7238,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
         <v>383</v>
-      </c>
-      <c r="F195" t="s">
-        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7270,10 +7267,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
         <v>385</v>
-      </c>
-      <c r="F196" t="s">
-        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7299,10 +7296,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
         <v>387</v>
-      </c>
-      <c r="F197" t="s">
-        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7328,10 +7325,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7357,10 +7354,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
         <v>391</v>
-      </c>
-      <c r="F199" t="s">
-        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7386,10 +7383,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
         <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7415,10 +7412,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
         <v>395</v>
-      </c>
-      <c r="F201" t="s">
-        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7444,10 +7441,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" t="s">
         <v>397</v>
-      </c>
-      <c r="F202" t="s">
-        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7473,10 +7470,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>398</v>
+      </c>
+      <c r="F203" t="s">
         <v>399</v>
-      </c>
-      <c r="F203" t="s">
-        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7502,10 +7499,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>400</v>
+      </c>
+      <c r="F204" t="s">
         <v>401</v>
-      </c>
-      <c r="F204" t="s">
-        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7531,10 +7528,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>402</v>
+      </c>
+      <c r="F205" t="s">
         <v>403</v>
-      </c>
-      <c r="F205" t="s">
-        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7560,10 +7557,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>404</v>
+      </c>
+      <c r="F206" t="s">
         <v>405</v>
-      </c>
-      <c r="F206" t="s">
-        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -7589,10 +7586,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>406</v>
+      </c>
+      <c r="F207" t="s">
         <v>407</v>
-      </c>
-      <c r="F207" t="s">
-        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7618,10 +7615,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>408</v>
+      </c>
+      <c r="F208" t="s">
         <v>409</v>
-      </c>
-      <c r="F208" t="s">
-        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
